--- a/data_log.xlsx
+++ b/data_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +438,226 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
